--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiepLH\Desktop\Own Project\GenerateEntityFromExcelTools\public_html\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML5\GenerateEntityFromExcelTools\public_html\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D18854-C019-4B29-9284-05DAD212FCC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
   <si>
     <t>Primary Key</t>
   </si>
@@ -191,12 +190,126 @@
   </si>
   <si>
     <t>Any field have no data will be display undefined</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>VARBINARY</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>LONGVARCHAR</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>LONGVARBINARY</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>java.math.BigDecimal</t>
+  </si>
+  <si>
+    <t>java.sql.Date</t>
+  </si>
+  <si>
+    <t>java.sql.Time</t>
+  </si>
+  <si>
+    <t>java.sql.Timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,30 +672,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" customWidth="1"/>
-    <col min="12" max="12" width="69.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -653,7 +766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -682,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -711,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -740,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -769,7 +882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,7 +911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -824,7 +937,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -850,7 +963,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -876,7 +989,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -902,7 +1015,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -928,7 +1041,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -954,7 +1067,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1093,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1119,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1145,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1171,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1197,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1223,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1249,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1164,7 +1277,7 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +1303,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1207,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
@@ -1216,7 +1329,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1232,8 +1345,8 @@
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
+      <c r="F24" t="s">
+        <v>68</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
@@ -1242,7 +1355,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1254,7 +1367,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1266,7 +1379,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1278,7 +1391,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1290,7 +1403,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1302,7 +1415,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1314,7 +1427,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1326,7 +1439,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1338,7 +1451,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1350,7 +1463,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1362,7 +1475,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1374,7 +1487,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1386,7 +1499,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1398,7 +1511,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1410,7 +1523,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1422,7 +1535,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1434,7 +1547,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1446,7 +1559,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1457,7 +1570,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1468,7 +1581,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1479,7 +1592,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1490,7 +1603,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1501,7 +1614,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1512,7 +1625,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1523,7 +1636,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1534,7 +1647,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1545,7 +1658,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1556,7 +1669,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1567,7 +1680,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1585,23 +1698,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E670D9-DCF1-4DB8-8824-30CC4B9C95DE}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
+      <c r="C1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -676,7 +676,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="103">
   <si>
     <t>Primary Key</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t>java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>dbl</t>
+  </si>
+  <si>
+    <t>sht</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>flt</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Truncated Num</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -365,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +423,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +820,9 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="L3" t="s">
         <v>4</v>
@@ -818,7 +851,9 @@
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="L4" t="s">
         <v>5</v>
@@ -847,7 +882,9 @@
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="L5" t="s">
         <v>6</v>
@@ -876,7 +913,9 @@
       <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="L6" t="s">
         <v>48</v>
@@ -1699,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1750,7 @@
     <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
@@ -1721,198 +1760,285 @@
       <c r="C1" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML5\GenerateEntityFromExcelTools\public_html\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiepLH\Desktop\Own Project\GenerateEntityFromExcelTools\public_html\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE3322-2AF1-462F-B6F2-320E078E8434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>Primary Key</t>
   </si>
@@ -304,12 +305,15 @@
   </si>
   <si>
     <t>java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t>Package Key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,30 +676,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="69.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,34 +710,37 @@
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -743,30 +750,31 @@
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9"/>
+      <c r="M2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,26 +784,27 @@
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
-      <c r="L3" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -805,26 +814,27 @@
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="9"/>
-      <c r="L4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="9"/>
+      <c r="M4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -834,26 +844,27 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="9"/>
-      <c r="L5" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="M5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -863,26 +874,27 @@
       <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="L6" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="M6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -892,26 +904,27 @@
       <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="L7" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="M7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -921,23 +934,24 @@
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -947,23 +961,24 @@
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -973,23 +988,24 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -999,23 +1015,24 @@
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1025,23 +1042,24 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1051,23 +1069,24 @@
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1077,23 +1096,24 @@
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1103,23 +1123,24 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1129,23 +1150,24 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1155,23 +1177,24 @@
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,23 +1204,24 @@
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1207,23 +1231,24 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,23 +1258,24 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1259,25 +1285,26 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1287,23 +1314,24 @@
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1313,23 +1341,24 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1339,357 +1368,387 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,20 +1757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
@@ -1722,7 +1781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1730,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1738,7 +1797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1746,7 +1805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1754,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1762,7 +1821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1773,7 +1832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1784,7 +1843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1792,7 +1851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1800,7 +1859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1808,7 +1867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1816,7 +1875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1824,7 +1883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1832,7 +1891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1840,7 +1899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1848,7 +1907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1856,7 +1915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +1923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1872,7 +1931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1883,7 +1942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1894,7 +1953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1905,14 +1964,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiepLH\Desktop\Own Project\GenerateEntityFromExcelTools\public_html\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE3322-2AF1-462F-B6F2-320E078E8434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FDFB7-317A-427E-A1E7-13C639C98478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
   <si>
     <t>Primary Key</t>
   </si>
@@ -308,6 +308,66 @@
   </si>
   <si>
     <t>Package Key</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Truncated Num</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>dbl</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>flt</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>sht</t>
+  </si>
+  <si>
+    <t>Num of PK to Gen Key Class</t>
+  </si>
+  <si>
+    <t>Tools will generate key java class if num of key larger than num of key config</t>
+  </si>
+  <si>
+    <t>Package of key java class will be apply based on Package Key field. If leave that field blank, package of key will be apply based on Package field and add Key word</t>
+  </si>
+  <si>
+    <t>if auto prefix is enable, it will be apply based on prefix at config tab</t>
+  </si>
+  <si>
+    <t>if auto prefix is disable, it will be apply based on Prefix field</t>
+  </si>
+  <si>
+    <t>Tools will automatically apply mapping from Data Type field at GenEntity tab to config tab (From - To)</t>
+  </si>
+  <si>
+    <t>If any type need import its library, tools automatically add import of its self at Library field</t>
+  </si>
+  <si>
+    <t>Truncated Num to config truncate string based on config (from 0 to Truncated Num) (only apply first row)</t>
+  </si>
+  <si>
+    <t>If num of Primary Key field at GenEntity larger than Num Of PK to Gen Key Class field, tools will automatic gennerate key java class file</t>
+  </si>
+  <si>
+    <t>If auto prefix is enable, it will be apply based on Data Type - Prefix (must match input data type to Data Type field) (sensitive)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,17 +438,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -397,6 +448,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,21 +749,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="69.54296875" bestFit="1" customWidth="1"/>
@@ -736,59 +806,55 @@
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -798,27 +864,27 @@
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="9"/>
-      <c r="M3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -828,27 +894,27 @@
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9"/>
-      <c r="M4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="6"/>
+      <c r="M4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -858,27 +924,27 @@
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9"/>
-      <c r="M5" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -888,27 +954,27 @@
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="M6" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="M6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -918,27 +984,27 @@
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="M7" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -948,24 +1014,27 @@
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="M8" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -975,24 +1044,27 @@
       <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1002,24 +1074,27 @@
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="6"/>
+      <c r="M10" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1029,24 +1104,27 @@
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1056,24 +1134,24 @@
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1083,24 +1161,24 @@
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1110,24 +1188,24 @@
       <c r="I14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1137,24 +1215,24 @@
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1164,24 +1242,24 @@
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1191,24 +1269,24 @@
       <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1218,24 +1296,24 @@
       <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1245,24 +1323,24 @@
       <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1272,24 +1350,24 @@
       <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1299,26 +1377,24 @@
       <c r="I21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="13"/>
       <c r="E22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1328,24 +1404,24 @@
       <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G23" t="s">
@@ -1355,24 +1431,24 @@
       <c r="I23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G24" t="s">
@@ -1382,373 +1458,373 @@
       <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="9"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="9"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="9"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="9"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,220 +1834,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiepLH\Desktop\Own Project\GenerateEntityFromExcelTools\public_html\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML5\GenerateEntityFromExcelTools\public_html\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FDFB7-317A-427E-A1E7-13C639C98478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
-    <sheet name="DataTypeMapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="118">
   <si>
     <t>Primary Key</t>
   </si>
@@ -40,9 +39,6 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>Nullable &amp; Primary Key apply 3 type couple values</t>
-  </si>
-  <si>
     <t>Yes/No, True/False, 1/0</t>
   </si>
   <si>
@@ -368,12 +364,27 @@
   </si>
   <si>
     <t>If auto prefix is enable, it will be apply based on Data Type - Prefix (must match input data type to Data Type field) (sensitive)</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Nullable &amp; Primary Key &amp; Repository &amp; Service apply 3 type couple values</t>
+  </si>
+  <si>
+    <t>Package Service</t>
+  </si>
+  <si>
+    <t>Package Repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,47 +757,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="69.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -801,667 +816,779 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="M2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="M4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="6"/>
+      <c r="Q4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="6"/>
+      <c r="Q5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="M9" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1472,9 +1599,13 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1485,9 +1616,13 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1498,9 +1633,13 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1511,9 +1650,13 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1524,9 +1667,13 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1537,9 +1684,13 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1550,9 +1701,13 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1563,9 +1718,13 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1576,9 +1735,13 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1589,9 +1752,13 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1602,9 +1769,13 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1615,9 +1786,13 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1628,9 +1803,13 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1641,9 +1820,13 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1654,9 +1837,13 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1667,9 +1854,13 @@
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1680,9 +1871,13 @@
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1693,8 +1888,12 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1705,8 +1904,12 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1717,8 +1920,12 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -1729,8 +1936,12 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1741,8 +1952,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1753,8 +1968,12 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1765,8 +1984,12 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1777,8 +2000,12 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1789,8 +2016,12 @@
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1801,8 +2032,12 @@
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1813,8 +2048,12 @@
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1825,6 +2064,10 @@
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1833,33 +2076,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -1868,28 +2111,28 @@
         <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1898,267 +2141,267 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public_html/template/Gen Entity Java Class Template.xlsx
+++ b/public_html/template/Gen Entity Java Class Template.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML5\GenerateEntityFromExcelTools\public_html\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiepLH\Desktop\Own Project\GenerateEntityFromExcelTools\public_html\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F98F6-353F-4B06-946A-37667EA26738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="4580" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenEntity" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="GenRepo" sheetId="3" r:id="rId2"/>
+    <sheet name="GenService" sheetId="4" r:id="rId3"/>
+    <sheet name="Config" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
   <si>
     <t>Primary Key</t>
   </si>
@@ -366,25 +369,28 @@
     <t>If auto prefix is enable, it will be apply based on Data Type - Prefix (must match input data type to Data Type field) (sensitive)</t>
   </si>
   <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t>Nullable &amp; Primary Key &amp; Repository &amp; Service apply 3 type couple values</t>
   </si>
   <si>
-    <t>Package Service</t>
-  </si>
-  <si>
-    <t>Package Repository</t>
+    <t>Object Class</t>
+  </si>
+  <si>
+    <t>Object Key Class</t>
+  </si>
+  <si>
+    <t>taplatform.dao</t>
+  </si>
+  <si>
+    <t>BankAccount</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,34 +763,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="69.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -816,28 +818,16 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -861,19 +851,15 @@
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="6"/>
-      <c r="Q2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
@@ -898,18 +884,12 @@
         <v>21</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="M3" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -934,18 +914,12 @@
         <v>21</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="6"/>
-      <c r="Q4" s="8" t="s">
+      <c r="K4" s="6"/>
+      <c r="M4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -970,16 +944,12 @@
         <v>21</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="8" t="s">
+      <c r="K5" s="6"/>
+      <c r="M5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1004,16 +974,12 @@
         <v>19</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="8" t="s">
+      <c r="K6" s="6"/>
+      <c r="M6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1038,16 +1004,12 @@
         <v>19</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="8" t="s">
+      <c r="K7" s="6"/>
+      <c r="M7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1072,16 +1034,12 @@
         <v>19</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="8" t="s">
+      <c r="K8" s="6"/>
+      <c r="M8" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1106,16 +1064,12 @@
         <v>19</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10" t="s">
+      <c r="K9" s="6"/>
+      <c r="M9" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1140,16 +1094,12 @@
         <v>19</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="8" t="s">
+      <c r="K10" s="6"/>
+      <c r="M10" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1174,16 +1124,12 @@
         <v>19</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="6"/>
-      <c r="Q11" s="8" t="s">
+      <c r="K11" s="6"/>
+      <c r="M11" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1208,13 +1154,9 @@
         <v>19</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1239,13 +1181,9 @@
         <v>19</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1270,13 +1208,9 @@
         <v>19</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1301,13 +1235,9 @@
         <v>19</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
@@ -1332,13 +1262,9 @@
         <v>19</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1363,13 +1289,9 @@
         <v>19</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1394,13 +1316,9 @@
         <v>19</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1425,13 +1343,9 @@
         <v>19</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1456,13 +1370,9 @@
         <v>19</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
@@ -1487,15 +1397,9 @@
         <v>19</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -1520,13 +1424,9 @@
         <v>19</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -1551,13 +1451,9 @@
         <v>19</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>39</v>
       </c>
@@ -1582,13 +1478,9 @@
         <v>21</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1599,13 +1491,9 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1616,13 +1504,9 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1633,13 +1517,9 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1650,13 +1530,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1667,13 +1543,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1684,13 +1556,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1701,13 +1569,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1718,13 +1582,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1735,13 +1595,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1752,13 +1608,9 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1769,13 +1621,9 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1786,13 +1634,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1803,13 +1647,9 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1820,13 +1660,9 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1837,13 +1673,9 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1854,13 +1686,9 @@
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1871,13 +1699,9 @@
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1888,12 +1712,8 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1904,12 +1724,8 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1920,12 +1736,8 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -1936,12 +1748,8 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1952,12 +1760,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1968,12 +1772,8 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1984,12 +1784,8 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2000,12 +1796,8 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2016,12 +1808,8 @@
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2032,12 +1820,8 @@
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2048,12 +1832,8 @@
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2064,10 +1844,6 @@
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,25 +1852,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D51163B-CCB2-448F-9776-7B5E8ACD23A3}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A291FE80-3752-48FF-AA39-A2572C34E0FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -2120,7 +1963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2138,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2161,7 +2004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2178,7 +2021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2195,7 +2038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2209,7 +2052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2223,7 +2066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2240,7 +2083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2257,7 +2100,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2265,7 +2108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2289,7 +2132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2297,7 +2140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2305,7 +2148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2313,7 +2156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2321,7 +2164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2329,7 +2172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2337,7 +2180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2345,7 +2188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2353,7 +2196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2372,7 +2215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +2226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2394,14 +2237,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
